--- a/output/summary_data_samples_sp.xlsx
+++ b/output/summary_data_samples_sp.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t xml:space="preserve">Family</t>
   </si>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">Achiropsettidae</t>
   </si>
   <si>
-    <t xml:space="preserve">Mancopsetta mancopsetta</t>
+    <t xml:space="preserve">Mancopsetta maculata</t>
   </si>
   <si>
     <t xml:space="preserve">Demersal</t>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">Bathylagus tenuis</t>
   </si>
   <si>
-    <t xml:space="preserve">Bathypelagic</t>
+    <t xml:space="preserve">Mesopelagic</t>
   </si>
   <si>
     <t xml:space="preserve">Carapidae</t>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">Muraenolepididae</t>
   </si>
   <si>
-    <t xml:space="preserve">Muraenolepis sp</t>
+    <t xml:space="preserve">Muraenolepis marmorata</t>
   </si>
   <si>
     <t xml:space="preserve">Myctophidae</t>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t xml:space="preserve">Gymnoscopelus nicholsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesopelagic/epibenthic</t>
   </si>
   <si>
     <t xml:space="preserve">Gymnoscopelus piabilis</t>
@@ -863,7 +866,7 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
         <v>10</v>
@@ -1075,7 +1078,7 @@
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D13" t="n">
         <v>10</v>
@@ -1207,7 +1210,7 @@
         <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D16" t="n">
         <v>10</v>
@@ -1339,7 +1342,7 @@
         <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D19" t="n">
         <v>10</v>
@@ -1380,10 +1383,10 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
         <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
       </c>
       <c r="D20" t="n">
         <v>10</v>
@@ -1424,7 +1427,7 @@
         <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
@@ -1468,7 +1471,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -1512,7 +1515,7 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
@@ -1556,7 +1559,7 @@
         <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
         <v>22</v>
@@ -1600,7 +1603,7 @@
         <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
         <v>22</v>
@@ -1641,10 +1644,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
@@ -1677,10 +1680,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
@@ -1721,10 +1724,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
@@ -1765,10 +1768,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -1809,10 +1812,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -1853,10 +1856,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
@@ -1897,10 +1900,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
         <v>22</v>
@@ -1941,10 +1944,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
         <v>22</v>
@@ -1977,10 +1980,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
         <v>22</v>
@@ -2021,10 +2024,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
         <v>22</v>

--- a/output/summary_data_samples_sp.xlsx
+++ b/output/summary_data_samples_sp.xlsx
@@ -608,19 +608,19 @@
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>24.5</v>
+        <v>24.65</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="G2" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="H2" t="n">
-        <v>4.94974746830583</v>
+        <v>5.02045814642449</v>
       </c>
       <c r="I2" t="n">
-        <v>0.202030508910442</v>
+        <v>0.203669701680507</v>
       </c>
       <c r="J2" t="n">
         <v>73.9743951585144</v>
@@ -652,19 +652,19 @@
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>17.52</v>
       </c>
       <c r="F3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="G3" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.920326029187483</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.0525300244970024</v>
       </c>
       <c r="J3" t="n">
         <v>73.1424630525432</v>
@@ -696,19 +696,19 @@
         <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>8.7</v>
       </c>
       <c r="G4" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.59058123036339</v>
+        <v>2.44994331000173</v>
       </c>
       <c r="I4" t="n">
-        <v>0.208917841158338</v>
+        <v>0.191401821093885</v>
       </c>
       <c r="J4" t="n">
         <v>75.3753075321792</v>
@@ -740,19 +740,19 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>33.5</v>
+        <v>34.02</v>
       </c>
       <c r="F5" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="G5" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.34165627596057</v>
+        <v>3.33826302139301</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0997509336107633</v>
+        <v>0.0981264850497652</v>
       </c>
       <c r="J5" t="n">
         <v>78.8547982474088</v>
@@ -784,19 +784,19 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>23.7</v>
+        <v>24.12</v>
       </c>
       <c r="F6" t="n">
-        <v>19</v>
+        <v>19.7</v>
       </c>
       <c r="G6" t="n">
-        <v>28</v>
+        <v>28.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.43349514181816</v>
+        <v>3.33992681223872</v>
       </c>
       <c r="I6" t="n">
-        <v>0.144873212734943</v>
+        <v>0.138471260872252</v>
       </c>
       <c r="J6" t="n">
         <v>78.5251181746024</v>
@@ -828,19 +828,19 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>19.6</v>
+        <v>19.95</v>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>14.9</v>
       </c>
       <c r="G7" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.65756445982539</v>
+        <v>3.47315098689616</v>
       </c>
       <c r="I7" t="n">
-        <v>0.186610431623744</v>
+        <v>0.174092781298053</v>
       </c>
       <c r="J7" t="n">
         <v>76.2002109389917</v>
@@ -872,19 +872,19 @@
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>32.8</v>
+        <v>33.13</v>
       </c>
       <c r="F8" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="G8" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="H8" t="n">
-        <v>2.0976176963403</v>
+        <v>2.11189751434844</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0639517590347654</v>
+        <v>0.0637457746558538</v>
       </c>
       <c r="J8" t="n">
         <v>69.748952222466</v>
@@ -916,19 +916,19 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>22.5555555555556</v>
+        <v>23.0555555555556</v>
       </c>
       <c r="F9" t="n">
-        <v>17</v>
+        <v>17.3</v>
       </c>
       <c r="G9" t="n">
-        <v>29</v>
+        <v>29.9</v>
       </c>
       <c r="H9" t="n">
-        <v>3.60940130461795</v>
+        <v>3.81153220867642</v>
       </c>
       <c r="I9" t="n">
-        <v>0.160022717938727</v>
+        <v>0.165319469291989</v>
       </c>
       <c r="J9" t="n">
         <v>73.5411322311717</v>
@@ -960,13 +960,13 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
@@ -996,19 +996,19 @@
         <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>20.4</v>
+        <v>20.76</v>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="G11" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="H11" t="n">
-        <v>0.894427190999916</v>
+        <v>0.844393273303381</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0438444701470547</v>
+        <v>0.040674049773766</v>
       </c>
       <c r="J11" t="n">
         <v>69.6874660675479</v>
@@ -1040,19 +1040,19 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>22</v>
+        <v>22.54</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>18.7</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>30.3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.71184290855335</v>
+        <v>3.65489017922868</v>
       </c>
       <c r="I12" t="n">
-        <v>0.16872013220697</v>
+        <v>0.16215129455318</v>
       </c>
       <c r="J12" t="n">
         <v>75.9347379473527</v>
@@ -1084,19 +1084,19 @@
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>6.66666666666667</v>
+        <v>7.36666666666667</v>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="H13" t="n">
-        <v>0.577350269189626</v>
+        <v>0.513160143944688</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0866025403784439</v>
+        <v>0.0696597480467903</v>
       </c>
       <c r="J13" t="n">
         <v>67.3006281120079</v>
@@ -1128,19 +1128,19 @@
         <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>9.41</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="G14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="H14" t="n">
-        <v>0.666666666666667</v>
+        <v>0.570477382938574</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0740740740740741</v>
+        <v>0.0606245890476699</v>
       </c>
       <c r="J14" t="n">
         <v>68.6580541084378</v>
@@ -1172,19 +1172,19 @@
         <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>9.55555555555556</v>
+        <v>9.96666666666667</v>
       </c>
       <c r="F15" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="G15" t="n">
-        <v>12</v>
+        <v>12.9</v>
       </c>
       <c r="H15" t="n">
-        <v>1.58989866902824</v>
+        <v>1.58034806292791</v>
       </c>
       <c r="I15" t="n">
-        <v>0.166384744433188</v>
+        <v>0.158563350795443</v>
       </c>
       <c r="J15" t="n">
         <v>71.8687876866198</v>
@@ -1216,19 +1216,19 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>20</v>
+        <v>20.33</v>
       </c>
       <c r="F16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="G16" t="n">
-        <v>22</v>
+        <v>22.4</v>
       </c>
       <c r="H16" t="n">
-        <v>2.58198889747161</v>
+        <v>2.5060149862104</v>
       </c>
       <c r="I16" t="n">
-        <v>0.129099444873581</v>
+        <v>0.123266846345814</v>
       </c>
       <c r="J16" t="n">
         <v>65.8313339650201</v>
@@ -1260,19 +1260,19 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>10.4166666666667</v>
+        <v>10.8583333333333</v>
       </c>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="G17" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="H17" t="n">
-        <v>0.792961461098759</v>
+        <v>0.657071095272364</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0761243002654809</v>
+        <v>0.0605130709383604</v>
       </c>
       <c r="J17" t="n">
         <v>64.3134935361298</v>
@@ -1304,19 +1304,19 @@
         <v>12</v>
       </c>
       <c r="E18" t="n">
-        <v>7.6</v>
+        <v>8.12</v>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="G18" t="n">
-        <v>8</v>
+        <v>8.8</v>
       </c>
       <c r="H18" t="n">
-        <v>0.516397779494322</v>
+        <v>0.489444129146071</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0679470762492529</v>
+        <v>0.0602763705844915</v>
       </c>
       <c r="J18" t="n">
         <v>70.7090279636206</v>
@@ -1348,19 +1348,19 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>12.25</v>
+        <v>12.6875</v>
       </c>
       <c r="F19" t="n">
         <v>12</v>
       </c>
       <c r="G19" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="H19" t="n">
-        <v>0.462910049886276</v>
+        <v>0.458062690656452</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0377885755009205</v>
+        <v>0.0361034633029716</v>
       </c>
       <c r="J19" t="n">
         <v>67.7541642280793</v>
@@ -1392,19 +1392,19 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>13.2</v>
+        <v>13.66</v>
       </c>
       <c r="F20" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="G20" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="H20" t="n">
-        <v>0.788810637746616</v>
+        <v>0.732120208708925</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0597583816474709</v>
+        <v>0.0535959157180765</v>
       </c>
       <c r="J20" t="n">
         <v>68.3226668417951</v>
@@ -1436,13 +1436,13 @@
         <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1480,19 +1480,19 @@
         <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>4.75</v>
+        <v>5.1</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5</v>
+        <v>0.496655480858378</v>
       </c>
       <c r="I22" t="n">
-        <v>0.105263157894737</v>
+        <v>0.0973834276192898</v>
       </c>
       <c r="J22" t="n">
         <v>74.646662851273</v>
@@ -1524,19 +1524,19 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>4.66666666666667</v>
+        <v>5.3</v>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="H23" t="n">
-        <v>0.577350269189626</v>
+        <v>0.556776436283002</v>
       </c>
       <c r="I23" t="n">
-        <v>0.123717914826348</v>
+        <v>0.105052157789246</v>
       </c>
       <c r="J23" t="n">
         <v>71.8917325467024</v>
@@ -1568,19 +1568,19 @@
         <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>6.33333333333333</v>
       </c>
       <c r="F24" t="n">
         <v>6</v>
       </c>
       <c r="G24" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.294392028877595</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.0464829519280413</v>
       </c>
       <c r="J24" t="n">
         <v>73.1257142209028</v>
@@ -1612,19 +1612,19 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>4.75</v>
+        <v>5.125</v>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5</v>
+        <v>0.206155281280883</v>
       </c>
       <c r="I25" t="n">
-        <v>0.105263157894737</v>
+        <v>0.0402254207377333</v>
       </c>
       <c r="J25" t="n">
         <v>71.2592545054167</v>
@@ -1656,13 +1656,13 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>23</v>
+        <v>23.9</v>
       </c>
       <c r="F26" t="n">
-        <v>23</v>
+        <v>23.9</v>
       </c>
       <c r="G26" t="n">
-        <v>23</v>
+        <v>23.9</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
@@ -1692,19 +1692,19 @@
         <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>26</v>
+        <v>26.25</v>
       </c>
       <c r="F27" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="G27" t="n">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.212132034355962</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.00808122035641761</v>
       </c>
       <c r="J27" t="n">
         <v>74.8378892536948</v>
@@ -1736,19 +1736,19 @@
         <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>17.875</v>
+        <v>18.3</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>21</v>
+        <v>21.4</v>
       </c>
       <c r="H28" t="n">
-        <v>1.88509188862809</v>
+        <v>1.9131126469709</v>
       </c>
       <c r="I28" t="n">
-        <v>0.105459686077096</v>
+        <v>0.104541674697863</v>
       </c>
       <c r="J28" t="n">
         <v>75.2244542104199</v>
@@ -1780,19 +1780,19 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>14.1</v>
+        <v>14.44</v>
       </c>
       <c r="F29" t="n">
-        <v>9</v>
+        <v>9.7</v>
       </c>
       <c r="G29" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="H29" t="n">
-        <v>3.34829973435938</v>
+        <v>3.26333163091546</v>
       </c>
       <c r="I29" t="n">
-        <v>0.237468066266623</v>
+        <v>0.225992495215752</v>
       </c>
       <c r="J29" t="n">
         <v>72.8603245172677</v>
@@ -1824,19 +1824,19 @@
         <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>8.57142857142857</v>
+        <v>8.91428571428571</v>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="G30" t="n">
         <v>15</v>
       </c>
       <c r="H30" t="n">
-        <v>3.30943816264649</v>
+        <v>3.12699460154559</v>
       </c>
       <c r="I30" t="n">
-        <v>0.386101118975423</v>
+        <v>0.350784650814409</v>
       </c>
       <c r="J30" t="n">
         <v>72.7079263053027</v>
@@ -1868,19 +1868,19 @@
         <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>23</v>
+        <v>23.5333333333333</v>
       </c>
       <c r="F31" t="n">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="G31" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.907377172587746</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.0385571036510374</v>
       </c>
       <c r="J31" t="n">
         <v>73.9690897682214</v>
@@ -1912,19 +1912,19 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>7.33333333333333</v>
+        <v>7.74444444444444</v>
       </c>
       <c r="F32" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="G32" t="n">
         <v>9</v>
       </c>
       <c r="H32" t="n">
-        <v>0.866025403784439</v>
+        <v>0.705533682950558</v>
       </c>
       <c r="I32" t="n">
-        <v>0.118094373243333</v>
+        <v>0.0911019102805598</v>
       </c>
       <c r="J32" t="n">
         <v>73.0760547309405</v>
@@ -1956,13 +1956,13 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>40</v>
+        <v>40.8</v>
       </c>
       <c r="F33" t="n">
-        <v>40</v>
+        <v>40.8</v>
       </c>
       <c r="G33" t="n">
-        <v>40</v>
+        <v>40.8</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
@@ -1992,19 +1992,19 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>20.1</v>
+        <v>20.55</v>
       </c>
       <c r="F34" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="G34" t="n">
-        <v>23</v>
+        <v>23.6</v>
       </c>
       <c r="H34" t="n">
-        <v>2.60128173535022</v>
+        <v>2.6336497700171</v>
       </c>
       <c r="I34" t="n">
-        <v>0.129417001758718</v>
+        <v>0.128158139660199</v>
       </c>
       <c r="J34" t="n">
         <v>74.1051816324501</v>
@@ -2036,19 +2036,19 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>21.6</v>
+        <v>22.11</v>
       </c>
       <c r="F35" t="n">
-        <v>18</v>
+        <v>18.8</v>
       </c>
       <c r="G35" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="H35" t="n">
-        <v>2.7968235951204</v>
+        <v>2.84310081112546</v>
       </c>
       <c r="I35" t="n">
-        <v>0.129482573848167</v>
+        <v>0.128588910498664</v>
       </c>
       <c r="J35" t="n">
         <v>82.6026329341775</v>

--- a/output/summary_data_samples_sp.xlsx
+++ b/output/summary_data_samples_sp.xlsx
@@ -212,7 +212,7 @@
     <t xml:space="preserve">Idiacanthus atlanticus</t>
   </si>
   <si>
-    <t xml:space="preserve">Stomias sp</t>
+    <t xml:space="preserve">Stomias spp.</t>
   </si>
   <si>
     <t xml:space="preserve">Zoarcidae</t>
